--- a/public/downloads/Template Files/FX History Report result.xlsx
+++ b/public/downloads/Template Files/FX History Report result.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RMG\Documents\Task\1-26~Excel Link\Template Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83561E9B-68BD-4759-AE7D-83D23230E157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29010" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="FX History Report Result" sheetId="1" r:id="rId1"/>
+    <sheet name="Raw Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,8 +25,70 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Buy Rate</t>
+  </si>
+  <si>
+    <t>Sell Rate</t>
+  </si>
+  <si>
+    <t>Rate Last Modified</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>AUD</t>
+  </si>
+  <si>
+    <t>22/05/2022</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>21/05/2022</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>20/05/2022</t>
+  </si>
+  <si>
+    <t>South African</t>
+  </si>
+  <si>
+    <t>ZAR</t>
+  </si>
+  <si>
+    <t>19/05/2022</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +118,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,10 +402,126 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.35</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2.38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDFC203-1D9A-4BB3-95A6-545F94DF042D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
